--- a/backend/csv/churnQuery.xlsx
+++ b/backend/csv/churnQuery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="124">
   <si>
     <t>reason</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Ming-Chen Hsu</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>[SP:11022-SP12] AggresiveUss SCs Fix</t>
@@ -1196,25 +1202,25 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N6" t="s">
         <v>41</v>
@@ -1270,10 +1276,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -1285,25 +1291,25 @@
         <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -1359,10 +1365,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1374,28 +1380,28 @@
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O8">
         <v>4</v>
@@ -1494,25 +1500,25 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1544,13 +1550,13 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M2">
         <v>38</v>
@@ -1594,13 +1600,13 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1644,13 +1650,13 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1694,13 +1700,13 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1744,13 +1750,13 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M6">
         <v>77</v>
@@ -1794,13 +1800,13 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M7">
         <v>25</v>
@@ -1844,13 +1850,13 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1894,13 +1900,13 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1944,13 +1950,13 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10">
         <v>171</v>
@@ -1994,13 +2000,13 @@
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -2044,13 +2050,13 @@
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -2094,13 +2100,13 @@
         <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2144,13 +2150,13 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14">
         <v>348</v>
@@ -2194,13 +2200,13 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2244,13 +2250,13 @@
         <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2294,13 +2300,13 @@
         <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2344,13 +2350,13 @@
         <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -2394,13 +2400,13 @@
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M19">
         <v>189</v>
@@ -2444,13 +2450,13 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2494,13 +2500,13 @@
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2544,13 +2550,13 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2594,13 +2600,13 @@
         <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -2644,13 +2650,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M24">
         <v>38</v>
@@ -2694,13 +2700,13 @@
         <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M25">
         <v>328</v>
@@ -2744,13 +2750,13 @@
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M26">
         <v>40</v>
@@ -2794,13 +2800,13 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M27">
         <v>253</v>
@@ -2844,13 +2850,13 @@
         <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -2894,13 +2900,13 @@
         <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M29">
         <v>4</v>
@@ -2944,13 +2950,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M30">
         <v>4</v>
@@ -2994,13 +3000,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M31">
         <v>269</v>
@@ -3044,13 +3050,13 @@
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -3094,13 +3100,13 @@
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M33">
         <v>8</v>
@@ -3144,13 +3150,13 @@
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M34">
         <v>11</v>
@@ -3194,13 +3200,13 @@
         <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M35">
         <v>6</v>
@@ -3244,13 +3250,13 @@
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M36">
         <v>415</v>
@@ -3288,19 +3294,19 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3338,19 +3344,19 @@
         <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3388,19 +3394,19 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3420,10 +3426,10 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -3438,19 +3444,19 @@
         <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M40">
         <v>75</v>
@@ -3470,10 +3476,10 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>32</v>
@@ -3488,19 +3494,19 @@
         <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M41">
         <v>101</v>
@@ -3520,10 +3526,10 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>32</v>
@@ -3538,19 +3544,19 @@
         <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -3570,10 +3576,10 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>32</v>
@@ -3588,19 +3594,19 @@
         <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -3620,10 +3626,10 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
@@ -3638,19 +3644,19 @@
         <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -3670,10 +3676,10 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
@@ -3688,19 +3694,19 @@
         <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M45">
         <v>5</v>
@@ -3720,10 +3726,10 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -3738,19 +3744,19 @@
         <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M46">
         <v>2</v>
@@ -3770,10 +3776,10 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>32</v>
@@ -3788,19 +3794,19 @@
         <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M47">
         <v>2</v>
@@ -3820,10 +3826,10 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -3838,19 +3844,19 @@
         <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -3870,10 +3876,10 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
@@ -3888,19 +3894,19 @@
         <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M49">
         <v>4</v>

--- a/backend/csv/churnQuery.xlsx
+++ b/backend/csv/churnQuery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="239">
   <si>
     <t>reason</t>
   </si>
@@ -251,6 +251,216 @@
     <t>source</t>
   </si>
   <si>
+    <t>11160-SP4</t>
+  </si>
+  <si>
+    <t>51ee21a6038faf08a8bc920171f527f71bebaec3</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:51ee21a6038faf08a8bc920171f527f71bebaec3</t>
+  </si>
+  <si>
+    <t>etobkon</t>
+  </si>
+  <si>
+    <t>Tobias König</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>BNEW EUIR RS PD1 Partners</t>
+  </si>
+  <si>
+    <t>5g/rc</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Set status USED for pmRwrEutranUeSuccTs</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>62bc878b02ab6e7fa9d27a90e583502059487392</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:62bc878b02ab6e7fa9d27a90e583502059487392</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Remove system constant bwtishoWithRwrEnable</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>75ccff6f6f4e56bc342bdb2058a740a5c4e7867a</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:75ccff6f6f4e56bc342bdb2058a740a5c4e7867a</t>
+  </si>
+  <si>
+    <t>ezjeuju</t>
+  </si>
+  <si>
+    <t>Julius Jeuthe</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] MCT: Removes SC bwtishoWithRwrEnable</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>bf07d871a4843646a2d2f97ab16ca7500ac6652e</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:bf07d871a4843646a2d2f97ab16ca7500ac6652e</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Moves tc133 and tc134 from sbt_soaking to sbt</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>3d930db389a5b02764b9a75f87fc9b37fad38602</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:3d930db389a5b02764b9a75f87fc9b37fad38602</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] MCT: Additional verification of pmRwrEutranUeSuccTs</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>6d4330a6bea3fc0c26c13e86b3674e1173183d84</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:6d4330a6bea3fc0c26c13e86b3674e1173183d84</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Add verification of counter pmRwrEutranUeSuccTs</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>c308027bf010fc9b22c6ed714f61f47049592e08</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:c308027bf010fc9b22c6ed714f61f47049592e08</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Add counter pmRwrEutranUeSuccTs</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>ffbdc3e27a61f4e86c9a3c602e41693df92c4cba</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:ffbdc3e27a61f4e86c9a3c602e41693df92c4cba</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Sets default value of bwtishoWithRwrEnable to enabled</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>30cead9b0ee739e4d90fcb4568f2703fb068638e</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:30cead9b0ee739e4d90fcb4568f2703fb068638e</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] MCT: tc134_bwtisho_at_pdu_session_setup_rwr_low_prio</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>974d021fed30f61d2b6c03a70fc8b42a4e39dc48</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:974d021fed30f61d2b6c03a70fc8b42a4e39dc48</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] MCT: tc133_bwtisho_with_rwr_at_pdu_session_setup</t>
+  </si>
+  <si>
+    <t>f0a062620d5af2c91bdb231d9a176c7fb4681145</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:f0a062620d5af2c91bdb231d9a176c7fb4681145</t>
+  </si>
+  <si>
+    <t>eramobt</t>
+  </si>
+  <si>
+    <t>Morgan Bergkvist</t>
+  </si>
+  <si>
+    <t>Linköping</t>
+  </si>
+  <si>
+    <t>BNEW EUIR RS TPS PB Product B</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] TC: Add RWR to BWTISHO handling</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>dc811601cafd85f82c1eb2d42f6e5a88349a4d37</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:dc811601cafd85f82c1eb2d42f6e5a88349a4d37</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] UE, Add traffic_eval::Release to TmoTBwtisho</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>f232e2b65bc4d630d56828e67b7488d38836b7bc</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:f232e2b65bc4d630d56828e67b7488d38836b7bc</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Adds system constant bwtishoWithRwrEnable</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>bfab8079a825ad4c4e9eb5bab97bc6f4c00863a7</t>
+  </si>
+  <si>
+    <t>https://gerrit.ericsson.se/q/commit:bfab8079a825ad4c4e9eb5bab97bc6f4c00863a7</t>
+  </si>
+  <si>
+    <t>5g/if/iro</t>
+  </si>
+  <si>
+    <t>[SP:11160-SP4] Adds RwrTrigger value TRAFFIC_STEERING</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
     <t>tag</t>
   </si>
   <si>
@@ -287,9 +497,6 @@
     <t>bbue/nr/upcUeDlNrCe/body/xbmSerial/upcuedlnrce_xbmserialactor_handlenrdlcellcicellinfoind.c</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>bbue/nr/upcUeDlNrCe/test/testcases/tc_aggresive_pdcch_cce_list_uss.yaml</t>
   </si>
   <si>
@@ -387,6 +594,144 @@
   </si>
   <si>
     <t>bbSfm/nr/bbSfmNrIf/api/nrDlCellCi/nrDlCellCi.ifx</t>
+  </si>
+  <si>
+    <t>obs/counters/models/GNBCUCP_NRCellCU_pmRwrEutranUeSuccTs.yaml</t>
+  </si>
+  <si>
+    <t>gte/apps/rc/src/rc_sysconst_def.erl</t>
+  </si>
+  <si>
+    <t>intif/pscon/constants_definitions/inc/sys_const_def.h</t>
+  </si>
+  <si>
+    <t>system_constants/utils/constants_definitions/doNotInclude/internal_sys_const_def.h</t>
+  </si>
+  <si>
+    <t>system_constants/utils/constants_definitions/xml/system_constant_definitions.xml</t>
+  </si>
+  <si>
+    <t>tc/conf/impl/database/inc/system_constant_db.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/adapter/impl/test/src/adapter_impl_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/configuration/if/inc/system_constant.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/configuration/if/test/mock/system_constant_mock.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/configuration/impl/inc/system_constant_impl.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/configuration/impl/src/system_constant_impl.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/configuration/impl/test/src/configuration_impl_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/configuration/impl/test/src/system_constant_impl_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/manager/src/system_constant_mgr.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/conf/manager/test/src/system_constant_mgr_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/src/b1_eutran_bwtisho_candidate_p_cell_handler.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/test/src/b1_eutran_bwtisho_candidate_p_cell_handler_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/services/pscon/rev1/if/inc/notify_ind.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/services/pscon/rev1/if/src/notify_ind.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/services/pscon/rev1/if/test/src/notify_ind_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/services/pscon/rev1/impl/src/protocol.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/services/pscon/rev1/impl/test/src/protocol_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/test/bit/td/service/inc/pscon.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/test/bit/td/service/src/pscon.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/test/bit/td/test_cases/src/traffic_eval_nr_test.cc</t>
+  </si>
+  <si>
+    <t>test/suites/vnrc/ucr/ue/sa_ue_ca_vnrc_SUITE.erl</t>
+  </si>
+  <si>
+    <t>test/suites/vnrc/ucr/ue/mcpc_nr_sa_vnrc_SUITE.erl</t>
+  </si>
+  <si>
+    <t>obs/variant/rcs/main/counters_lms.yaml</t>
+  </si>
+  <si>
+    <t>tc/obs/impl/protocol/iro/impl/src/mobility_decision_rwr_creator.cc</t>
+  </si>
+  <si>
+    <t>tc/obs/types/inc/rwr_trigger.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/if/inc/timer_handler_factory.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/if/test/mock/timer_handler_factory_mock.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/inc/b1_eutran_bwtisho_candidate_p_cell_handler.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/inc/bwtisho_timer_handler.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/inc/timer_handler_factory_impl.h</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/src/bwtisho_timer_handler.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/src/timer_handler_factory_impl.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/test/src/b2_eutran_candidate_p_cell_handler_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/measurement/impl/test/src/bwtisho_timer_handler_test.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/traffic_eval/evaluators/measurement_timer_expired/impl/src/measurement_timer_expired_evaluator_impl.cc</t>
+  </si>
+  <si>
+    <t>tc/variant/nr/traffic_eval/evaluators/measurement_timer_expired/impl/test/src/measurement_timer_expired_evaluator_impl_test.cc</t>
+  </si>
+  <si>
+    <t>ue/variant/nr/handler/ep/src/tmo_t_bwtisho.cc</t>
+  </si>
+  <si>
+    <t>ue/variant/nr/handler/ep/test/src/tmo_t_bwtisho_fixture.cc</t>
+  </si>
+  <si>
+    <t>ue/variant/nr/handler/ep/test/src/tmo_t_bwtisho_fixture.h</t>
+  </si>
+  <si>
+    <t>ue/variant/nr/handler/ep/test/src/tmo_t_bwtisho_test.cc</t>
+  </si>
+  <si>
+    <t>obs_event/rev1/rcf/obs_mobility_decision_rwr_msg.proto</t>
   </si>
 </sst>
 </file>
@@ -731,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1446,6 +1791,1252 @@
         <v>4</v>
       </c>
       <c r="AC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>152</v>
+      </c>
+      <c r="Q10">
+        <v>-141</v>
+      </c>
+      <c r="R10">
+        <v>163</v>
+      </c>
+      <c r="S10">
+        <v>13</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>116</v>
+      </c>
+      <c r="V10">
+        <v>-116</v>
+      </c>
+      <c r="W10">
+        <v>116</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <v>268</v>
+      </c>
+      <c r="AA10">
+        <v>-257</v>
+      </c>
+      <c r="AB10">
+        <v>279</v>
+      </c>
+      <c r="AC10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>64</v>
+      </c>
+      <c r="U11">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>34</v>
+      </c>
+      <c r="W11">
+        <v>94</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>64</v>
+      </c>
+      <c r="Z11">
+        <v>30</v>
+      </c>
+      <c r="AA11">
+        <v>34</v>
+      </c>
+      <c r="AB11">
+        <v>94</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>15</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AB13">
+        <v>18</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15">
+        <v>40</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>40</v>
+      </c>
+      <c r="R15">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>40</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>40</v>
+      </c>
+      <c r="AB15">
+        <v>40</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>22</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>11</v>
+      </c>
+      <c r="Z16">
+        <v>11</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>22</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>273</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>267</v>
+      </c>
+      <c r="W17">
+        <v>279</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>273</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>267</v>
+      </c>
+      <c r="AB17">
+        <v>279</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>208</v>
+      </c>
+      <c r="U18">
+        <v>13</v>
+      </c>
+      <c r="V18">
+        <v>195</v>
+      </c>
+      <c r="W18">
+        <v>221</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>208</v>
+      </c>
+      <c r="Z18">
+        <v>13</v>
+      </c>
+      <c r="AA18">
+        <v>195</v>
+      </c>
+      <c r="AB18">
+        <v>221</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19">
+        <v>215</v>
+      </c>
+      <c r="P19">
+        <v>80</v>
+      </c>
+      <c r="Q19">
+        <v>135</v>
+      </c>
+      <c r="R19">
+        <v>295</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>246</v>
+      </c>
+      <c r="U19">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>219</v>
+      </c>
+      <c r="W19">
+        <v>273</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>461</v>
+      </c>
+      <c r="Z19">
+        <v>107</v>
+      </c>
+      <c r="AA19">
+        <v>354</v>
+      </c>
+      <c r="AB19">
+        <v>568</v>
+      </c>
+      <c r="AC19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>25</v>
+      </c>
+      <c r="W20">
+        <v>25</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>31</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>31</v>
+      </c>
+      <c r="AB20">
+        <v>31</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>170</v>
+      </c>
+      <c r="P21">
+        <v>34</v>
+      </c>
+      <c r="Q21">
+        <v>136</v>
+      </c>
+      <c r="R21">
+        <v>204</v>
+      </c>
+      <c r="S21">
+        <v>12</v>
+      </c>
+      <c r="T21">
+        <v>128</v>
+      </c>
+      <c r="U21">
+        <v>82</v>
+      </c>
+      <c r="V21">
+        <v>46</v>
+      </c>
+      <c r="W21">
+        <v>210</v>
+      </c>
+      <c r="X21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>298</v>
+      </c>
+      <c r="Z21">
+        <v>116</v>
+      </c>
+      <c r="AA21">
+        <v>182</v>
+      </c>
+      <c r="AB21">
+        <v>414</v>
+      </c>
+      <c r="AC21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
         <v>1</v>
       </c>
     </row>
@@ -1458,6 +3049,20 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1465,7 +3070,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1500,25 +3105,25 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1553,10 +3158,10 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M2">
         <v>38</v>
@@ -1603,10 +3208,10 @@
         <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1653,10 +3258,10 @@
         <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1703,10 +3308,10 @@
         <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1750,13 +3355,13 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M6">
         <v>77</v>
@@ -1803,10 +3408,10 @@
         <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M7">
         <v>25</v>
@@ -1853,10 +3458,10 @@
         <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1903,10 +3508,10 @@
         <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1950,13 +3555,13 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M10">
         <v>171</v>
@@ -2003,10 +3608,10 @@
         <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -2053,10 +3658,10 @@
         <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -2103,10 +3708,10 @@
         <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2150,13 +3755,13 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="M14">
         <v>348</v>
@@ -2200,13 +3805,13 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2250,13 +3855,13 @@
         <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2300,13 +3905,13 @@
         <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2353,10 +3958,10 @@
         <v>77</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -2403,10 +4008,10 @@
         <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M19">
         <v>189</v>
@@ -2450,13 +4055,13 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2500,13 +4105,13 @@
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2550,13 +4155,13 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2600,13 +4205,13 @@
         <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -2650,13 +4255,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M24">
         <v>38</v>
@@ -2700,13 +4305,13 @@
         <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M25">
         <v>328</v>
@@ -2750,13 +4355,13 @@
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M26">
         <v>40</v>
@@ -2800,13 +4405,13 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K27" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M27">
         <v>253</v>
@@ -2850,13 +4455,13 @@
         <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -2903,10 +4508,10 @@
         <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M29">
         <v>4</v>
@@ -2950,13 +4555,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M30">
         <v>4</v>
@@ -3000,13 +4605,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M31">
         <v>269</v>
@@ -3053,10 +4658,10 @@
         <v>77</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -3103,10 +4708,10 @@
         <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M33">
         <v>8</v>
@@ -3153,10 +4758,10 @@
         <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M34">
         <v>11</v>
@@ -3203,10 +4808,10 @@
         <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M35">
         <v>6</v>
@@ -3250,13 +4855,13 @@
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="M36">
         <v>415</v>
@@ -3303,10 +4908,10 @@
         <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3353,10 +4958,10 @@
         <v>77</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3400,13 +5005,13 @@
         <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3453,10 +5058,10 @@
         <v>77</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M40">
         <v>75</v>
@@ -3503,10 +5108,10 @@
         <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M41">
         <v>101</v>
@@ -3553,10 +5158,10 @@
         <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -3600,13 +5205,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -3653,10 +5258,10 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -3700,13 +5305,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M45">
         <v>5</v>
@@ -3753,10 +5358,10 @@
         <v>77</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M46">
         <v>2</v>
@@ -3803,10 +5408,10 @@
         <v>77</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M47">
         <v>2</v>
@@ -3853,10 +5458,10 @@
         <v>77</v>
       </c>
       <c r="K48" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -3903,10 +5508,10 @@
         <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="M49">
         <v>4</v>
@@ -3919,6 +5524,4006 @@
       </c>
       <c r="P49">
         <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s">
+        <v>193</v>
+      </c>
+      <c r="L50" t="s">
+        <v>156</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" t="s">
+        <v>156</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>19</v>
+      </c>
+      <c r="O51">
+        <v>-19</v>
+      </c>
+      <c r="P51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>36</v>
+      </c>
+      <c r="O52">
+        <v>-36</v>
+      </c>
+      <c r="P52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>196</v>
+      </c>
+      <c r="L53" t="s">
+        <v>156</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s">
+        <v>197</v>
+      </c>
+      <c r="L54" t="s">
+        <v>156</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>51</v>
+      </c>
+      <c r="O54">
+        <v>-51</v>
+      </c>
+      <c r="P54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s">
+        <v>198</v>
+      </c>
+      <c r="L55" t="s">
+        <v>156</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>-1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+      <c r="J56" t="s">
+        <v>98</v>
+      </c>
+      <c r="K56" t="s">
+        <v>199</v>
+      </c>
+      <c r="L56" t="s">
+        <v>156</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>-2</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s">
+        <v>200</v>
+      </c>
+      <c r="L57" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>-1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+      <c r="K58" t="s">
+        <v>201</v>
+      </c>
+      <c r="L58" t="s">
+        <v>156</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>-1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s">
+        <v>202</v>
+      </c>
+      <c r="L59" t="s">
+        <v>156</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>-1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" t="s">
+        <v>156</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>-2</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61" t="s">
+        <v>204</v>
+      </c>
+      <c r="L61" t="s">
+        <v>156</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>-1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" t="s">
+        <v>156</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>7</v>
+      </c>
+      <c r="O62">
+        <v>-7</v>
+      </c>
+      <c r="P62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L63" t="s">
+        <v>156</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>-3</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" t="s">
+        <v>207</v>
+      </c>
+      <c r="L64" t="s">
+        <v>156</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14</v>
+      </c>
+      <c r="O64">
+        <v>-14</v>
+      </c>
+      <c r="P64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s">
+        <v>208</v>
+      </c>
+      <c r="L65" t="s">
+        <v>156</v>
+      </c>
+      <c r="M65">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>14</v>
+      </c>
+      <c r="O65">
+        <v>-5</v>
+      </c>
+      <c r="P65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" t="s">
+        <v>209</v>
+      </c>
+      <c r="L66" t="s">
+        <v>156</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>63</v>
+      </c>
+      <c r="O66">
+        <v>-63</v>
+      </c>
+      <c r="P66">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" t="s">
+        <v>156</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>-2</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J68" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s">
+        <v>211</v>
+      </c>
+      <c r="L68" t="s">
+        <v>156</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68">
+        <v>-4</v>
+      </c>
+      <c r="P68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" t="s">
+        <v>212</v>
+      </c>
+      <c r="L69" t="s">
+        <v>156</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>-5</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s">
+        <v>213</v>
+      </c>
+      <c r="L70" t="s">
+        <v>156</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>16</v>
+      </c>
+      <c r="O70">
+        <v>-16</v>
+      </c>
+      <c r="P70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K71" t="s">
+        <v>214</v>
+      </c>
+      <c r="L71" t="s">
+        <v>156</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>11</v>
+      </c>
+      <c r="O71">
+        <v>-11</v>
+      </c>
+      <c r="P71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" t="s">
+        <v>215</v>
+      </c>
+      <c r="L72" t="s">
+        <v>156</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <v>-4</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" t="s">
+        <v>216</v>
+      </c>
+      <c r="L73" t="s">
+        <v>156</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>-1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>92</v>
+      </c>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" t="s">
+        <v>217</v>
+      </c>
+      <c r="L74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+      <c r="O74">
+        <v>-7</v>
+      </c>
+      <c r="P74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s">
+        <v>218</v>
+      </c>
+      <c r="L75" t="s">
+        <v>156</v>
+      </c>
+      <c r="M75">
+        <v>64</v>
+      </c>
+      <c r="N75">
+        <v>30</v>
+      </c>
+      <c r="O75">
+        <v>34</v>
+      </c>
+      <c r="P75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" t="s">
+        <v>98</v>
+      </c>
+      <c r="K76" t="s">
+        <v>218</v>
+      </c>
+      <c r="L76" t="s">
+        <v>156</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" t="s">
+        <v>98</v>
+      </c>
+      <c r="K77" t="s">
+        <v>219</v>
+      </c>
+      <c r="L77" t="s">
+        <v>156</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>98</v>
+      </c>
+      <c r="K78" t="s">
+        <v>218</v>
+      </c>
+      <c r="L78" t="s">
+        <v>156</v>
+      </c>
+      <c r="M78">
+        <v>11</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>9</v>
+      </c>
+      <c r="P78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>98</v>
+      </c>
+      <c r="K79" t="s">
+        <v>218</v>
+      </c>
+      <c r="L79" t="s">
+        <v>156</v>
+      </c>
+      <c r="M79">
+        <v>11</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s">
+        <v>193</v>
+      </c>
+      <c r="L80" t="s">
+        <v>151</v>
+      </c>
+      <c r="M80">
+        <v>39</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>39</v>
+      </c>
+      <c r="P80">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J81" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s">
+        <v>220</v>
+      </c>
+      <c r="L81" t="s">
+        <v>156</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+      <c r="J82" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s">
+        <v>194</v>
+      </c>
+      <c r="L82" t="s">
+        <v>156</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s">
+        <v>118</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+      <c r="J83" t="s">
+        <v>77</v>
+      </c>
+      <c r="K83" t="s">
+        <v>195</v>
+      </c>
+      <c r="L83" t="s">
+        <v>156</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s">
+        <v>118</v>
+      </c>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+      <c r="J84" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s">
+        <v>196</v>
+      </c>
+      <c r="L84" t="s">
+        <v>156</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+      <c r="J85" t="s">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s">
+        <v>197</v>
+      </c>
+      <c r="L85" t="s">
+        <v>156</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+      <c r="J86" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" t="s">
+        <v>218</v>
+      </c>
+      <c r="L86" t="s">
+        <v>156</v>
+      </c>
+      <c r="M86">
+        <v>273</v>
+      </c>
+      <c r="N86">
+        <v>6</v>
+      </c>
+      <c r="O86">
+        <v>267</v>
+      </c>
+      <c r="P86">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+      <c r="J87" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87" t="s">
+        <v>218</v>
+      </c>
+      <c r="L87" t="s">
+        <v>156</v>
+      </c>
+      <c r="M87">
+        <v>208</v>
+      </c>
+      <c r="N87">
+        <v>13</v>
+      </c>
+      <c r="O87">
+        <v>195</v>
+      </c>
+      <c r="P87">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s">
+        <v>134</v>
+      </c>
+      <c r="I88" t="s">
+        <v>134</v>
+      </c>
+      <c r="J88" t="s">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s">
+        <v>221</v>
+      </c>
+      <c r="L88" t="s">
+        <v>156</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s">
+        <v>134</v>
+      </c>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s">
+        <v>222</v>
+      </c>
+      <c r="L89" t="s">
+        <v>156</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" t="s">
+        <v>129</v>
+      </c>
+      <c r="F90" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s">
+        <v>134</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" t="s">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s">
+        <v>223</v>
+      </c>
+      <c r="L90" t="s">
+        <v>156</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s">
+        <v>134</v>
+      </c>
+      <c r="I91" t="s">
+        <v>134</v>
+      </c>
+      <c r="J91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K91" t="s">
+        <v>224</v>
+      </c>
+      <c r="L91" t="s">
+        <v>156</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s">
+        <v>134</v>
+      </c>
+      <c r="I92" t="s">
+        <v>134</v>
+      </c>
+      <c r="J92" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s">
+        <v>225</v>
+      </c>
+      <c r="L92" t="s">
+        <v>156</v>
+      </c>
+      <c r="M92">
+        <v>24</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <v>20</v>
+      </c>
+      <c r="P92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" t="s">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s">
+        <v>134</v>
+      </c>
+      <c r="I93" t="s">
+        <v>134</v>
+      </c>
+      <c r="J93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s">
+        <v>226</v>
+      </c>
+      <c r="L93" t="s">
+        <v>156</v>
+      </c>
+      <c r="M93">
+        <v>20</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>20</v>
+      </c>
+      <c r="P93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s">
+        <v>134</v>
+      </c>
+      <c r="J94" t="s">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s">
+        <v>227</v>
+      </c>
+      <c r="L94" t="s">
+        <v>156</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s">
+        <v>134</v>
+      </c>
+      <c r="I95" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" t="s">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s">
+        <v>208</v>
+      </c>
+      <c r="L95" t="s">
+        <v>156</v>
+      </c>
+      <c r="M95">
+        <v>129</v>
+      </c>
+      <c r="N95">
+        <v>68</v>
+      </c>
+      <c r="O95">
+        <v>61</v>
+      </c>
+      <c r="P95">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" t="s">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+      <c r="J96" t="s">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s">
+        <v>228</v>
+      </c>
+      <c r="L96" t="s">
+        <v>156</v>
+      </c>
+      <c r="M96">
+        <v>24</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <v>20</v>
+      </c>
+      <c r="P96">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s">
+        <v>134</v>
+      </c>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+      <c r="J97" t="s">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s">
+        <v>229</v>
+      </c>
+      <c r="L97" t="s">
+        <v>156</v>
+      </c>
+      <c r="M97">
+        <v>12</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
+      <c r="P97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" t="s">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+      <c r="J98" t="s">
+        <v>98</v>
+      </c>
+      <c r="K98" t="s">
+        <v>209</v>
+      </c>
+      <c r="L98" t="s">
+        <v>156</v>
+      </c>
+      <c r="M98">
+        <v>98</v>
+      </c>
+      <c r="N98">
+        <v>10</v>
+      </c>
+      <c r="O98">
+        <v>88</v>
+      </c>
+      <c r="P98">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" t="s">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s">
+        <v>134</v>
+      </c>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+      <c r="J99" t="s">
+        <v>98</v>
+      </c>
+      <c r="K99" t="s">
+        <v>230</v>
+      </c>
+      <c r="L99" t="s">
+        <v>156</v>
+      </c>
+      <c r="M99">
+        <v>10</v>
+      </c>
+      <c r="N99">
+        <v>11</v>
+      </c>
+      <c r="O99">
+        <v>-1</v>
+      </c>
+      <c r="P99">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+      <c r="J100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K100" t="s">
+        <v>231</v>
+      </c>
+      <c r="L100" t="s">
+        <v>156</v>
+      </c>
+      <c r="M100">
+        <v>63</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>63</v>
+      </c>
+      <c r="P100">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" t="s">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s">
+        <v>134</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+      <c r="J101" t="s">
+        <v>98</v>
+      </c>
+      <c r="K101" t="s">
+        <v>217</v>
+      </c>
+      <c r="L101" t="s">
+        <v>156</v>
+      </c>
+      <c r="M101">
+        <v>73</v>
+      </c>
+      <c r="N101">
+        <v>6</v>
+      </c>
+      <c r="O101">
+        <v>67</v>
+      </c>
+      <c r="P101">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" t="s">
+        <v>130</v>
+      </c>
+      <c r="G102" t="s">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+      <c r="J102" t="s">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s">
+        <v>232</v>
+      </c>
+      <c r="L102" t="s">
+        <v>156</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+      <c r="J103" t="s">
+        <v>98</v>
+      </c>
+      <c r="K103" t="s">
+        <v>233</v>
+      </c>
+      <c r="L103" t="s">
+        <v>156</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" t="s">
+        <v>81</v>
+      </c>
+      <c r="F104" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" t="s">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+      <c r="J104" t="s">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s">
+        <v>234</v>
+      </c>
+      <c r="L104" t="s">
+        <v>156</v>
+      </c>
+      <c r="M104">
+        <v>6</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>6</v>
+      </c>
+      <c r="P104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F105" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H105" t="s">
+        <v>138</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+      <c r="J105" t="s">
+        <v>98</v>
+      </c>
+      <c r="K105" t="s">
+        <v>235</v>
+      </c>
+      <c r="L105" t="s">
+        <v>156</v>
+      </c>
+      <c r="M105">
+        <v>6</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F106" t="s">
+        <v>82</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s">
+        <v>138</v>
+      </c>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+      <c r="J106" t="s">
+        <v>98</v>
+      </c>
+      <c r="K106" t="s">
+        <v>236</v>
+      </c>
+      <c r="L106" t="s">
+        <v>156</v>
+      </c>
+      <c r="M106">
+        <v>8</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>8</v>
+      </c>
+      <c r="P106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G107" t="s">
+        <v>86</v>
+      </c>
+      <c r="H107" t="s">
+        <v>138</v>
+      </c>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+      <c r="J107" t="s">
+        <v>98</v>
+      </c>
+      <c r="K107" t="s">
+        <v>237</v>
+      </c>
+      <c r="L107" t="s">
+        <v>156</v>
+      </c>
+      <c r="M107">
+        <v>11</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>11</v>
+      </c>
+      <c r="P107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" t="s">
+        <v>82</v>
+      </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
+      <c r="H108" t="s">
+        <v>142</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+      <c r="J108" t="s">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s">
+        <v>194</v>
+      </c>
+      <c r="L108" t="s">
+        <v>156</v>
+      </c>
+      <c r="M108">
+        <v>21</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>19</v>
+      </c>
+      <c r="P108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" t="s">
+        <v>82</v>
+      </c>
+      <c r="G109" t="s">
+        <v>86</v>
+      </c>
+      <c r="H109" t="s">
+        <v>142</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+      <c r="J109" t="s">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s">
+        <v>195</v>
+      </c>
+      <c r="L109" t="s">
+        <v>156</v>
+      </c>
+      <c r="M109">
+        <v>36</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>36</v>
+      </c>
+      <c r="P109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F110" t="s">
+        <v>82</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s">
+        <v>142</v>
+      </c>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+      <c r="J110" t="s">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s">
+        <v>196</v>
+      </c>
+      <c r="L110" t="s">
+        <v>156</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G111" t="s">
+        <v>86</v>
+      </c>
+      <c r="H111" t="s">
+        <v>142</v>
+      </c>
+      <c r="I111" t="s">
+        <v>142</v>
+      </c>
+      <c r="J111" t="s">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s">
+        <v>197</v>
+      </c>
+      <c r="L111" t="s">
+        <v>156</v>
+      </c>
+      <c r="M111">
+        <v>51</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>51</v>
+      </c>
+      <c r="P111">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" t="s">
+        <v>82</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+      <c r="H112" t="s">
+        <v>142</v>
+      </c>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+      <c r="J112" t="s">
+        <v>77</v>
+      </c>
+      <c r="K112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L112" t="s">
+        <v>156</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" t="s">
+        <v>82</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+      <c r="J113" t="s">
+        <v>98</v>
+      </c>
+      <c r="K113" t="s">
+        <v>199</v>
+      </c>
+      <c r="L113" t="s">
+        <v>156</v>
+      </c>
+      <c r="M113">
+        <v>25</v>
+      </c>
+      <c r="N113">
+        <v>23</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+      <c r="P113">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" t="s">
+        <v>82</v>
+      </c>
+      <c r="G114" t="s">
+        <v>86</v>
+      </c>
+      <c r="H114" t="s">
+        <v>142</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+      <c r="J114" t="s">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s">
+        <v>200</v>
+      </c>
+      <c r="L114" t="s">
+        <v>156</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+      <c r="H115" t="s">
+        <v>142</v>
+      </c>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+      <c r="J115" t="s">
+        <v>98</v>
+      </c>
+      <c r="K115" t="s">
+        <v>201</v>
+      </c>
+      <c r="L115" t="s">
+        <v>156</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" t="s">
+        <v>82</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s">
+        <v>142</v>
+      </c>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+      <c r="J116" t="s">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s">
+        <v>202</v>
+      </c>
+      <c r="L116" t="s">
+        <v>156</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" t="s">
+        <v>82</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" t="s">
+        <v>142</v>
+      </c>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
+      <c r="J117" t="s">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s">
+        <v>203</v>
+      </c>
+      <c r="L117" t="s">
+        <v>156</v>
+      </c>
+      <c r="M117">
+        <v>26</v>
+      </c>
+      <c r="N117">
+        <v>24</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" t="s">
+        <v>82</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
+      <c r="H118" t="s">
+        <v>142</v>
+      </c>
+      <c r="I118" t="s">
+        <v>142</v>
+      </c>
+      <c r="J118" t="s">
+        <v>98</v>
+      </c>
+      <c r="K118" t="s">
+        <v>204</v>
+      </c>
+      <c r="L118" t="s">
+        <v>156</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
+        <v>82</v>
+      </c>
+      <c r="G119" t="s">
+        <v>86</v>
+      </c>
+      <c r="H119" t="s">
+        <v>142</v>
+      </c>
+      <c r="I119" t="s">
+        <v>142</v>
+      </c>
+      <c r="J119" t="s">
+        <v>98</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s">
+        <v>156</v>
+      </c>
+      <c r="M119">
+        <v>55</v>
+      </c>
+      <c r="N119">
+        <v>48</v>
+      </c>
+      <c r="O119">
+        <v>7</v>
+      </c>
+      <c r="P119">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
+        <v>82</v>
+      </c>
+      <c r="G120" t="s">
+        <v>86</v>
+      </c>
+      <c r="H120" t="s">
+        <v>142</v>
+      </c>
+      <c r="I120" t="s">
+        <v>142</v>
+      </c>
+      <c r="J120" t="s">
+        <v>77</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120" t="s">
+        <v>156</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>82</v>
+      </c>
+      <c r="G121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H121" t="s">
+        <v>142</v>
+      </c>
+      <c r="I121" t="s">
+        <v>142</v>
+      </c>
+      <c r="J121" t="s">
+        <v>98</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="L121" t="s">
+        <v>156</v>
+      </c>
+      <c r="M121">
+        <v>16</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
+        <v>14</v>
+      </c>
+      <c r="P121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" t="s">
+        <v>81</v>
+      </c>
+      <c r="F122" t="s">
+        <v>82</v>
+      </c>
+      <c r="G122" t="s">
+        <v>86</v>
+      </c>
+      <c r="H122" t="s">
+        <v>142</v>
+      </c>
+      <c r="I122" t="s">
+        <v>142</v>
+      </c>
+      <c r="J122" t="s">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s">
+        <v>210</v>
+      </c>
+      <c r="L122" t="s">
+        <v>156</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>2</v>
+      </c>
+      <c r="P122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" t="s">
+        <v>81</v>
+      </c>
+      <c r="F123" t="s">
+        <v>82</v>
+      </c>
+      <c r="G123" t="s">
+        <v>86</v>
+      </c>
+      <c r="H123" t="s">
+        <v>142</v>
+      </c>
+      <c r="I123" t="s">
+        <v>142</v>
+      </c>
+      <c r="J123" t="s">
+        <v>77</v>
+      </c>
+      <c r="K123" t="s">
+        <v>211</v>
+      </c>
+      <c r="L123" t="s">
+        <v>156</v>
+      </c>
+      <c r="M123">
+        <v>7</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>3</v>
+      </c>
+      <c r="P123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" t="s">
+        <v>82</v>
+      </c>
+      <c r="G124" t="s">
+        <v>86</v>
+      </c>
+      <c r="H124" t="s">
+        <v>142</v>
+      </c>
+      <c r="I124" t="s">
+        <v>142</v>
+      </c>
+      <c r="J124" t="s">
+        <v>98</v>
+      </c>
+      <c r="K124" t="s">
+        <v>212</v>
+      </c>
+      <c r="L124" t="s">
+        <v>156</v>
+      </c>
+      <c r="M124">
+        <v>8</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" t="s">
+        <v>82</v>
+      </c>
+      <c r="G125" t="s">
+        <v>86</v>
+      </c>
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
+        <v>142</v>
+      </c>
+      <c r="J125" t="s">
+        <v>77</v>
+      </c>
+      <c r="K125" t="s">
+        <v>213</v>
+      </c>
+      <c r="L125" t="s">
+        <v>156</v>
+      </c>
+      <c r="M125">
+        <v>17</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>16</v>
+      </c>
+      <c r="P125">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126" t="s">
+        <v>82</v>
+      </c>
+      <c r="G126" t="s">
+        <v>86</v>
+      </c>
+      <c r="H126" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" t="s">
+        <v>142</v>
+      </c>
+      <c r="J126" t="s">
+        <v>98</v>
+      </c>
+      <c r="K126" t="s">
+        <v>214</v>
+      </c>
+      <c r="L126" t="s">
+        <v>156</v>
+      </c>
+      <c r="M126">
+        <v>14</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126">
+        <v>11</v>
+      </c>
+      <c r="P126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127" t="s">
+        <v>86</v>
+      </c>
+      <c r="H127" t="s">
+        <v>142</v>
+      </c>
+      <c r="I127" t="s">
+        <v>142</v>
+      </c>
+      <c r="J127" t="s">
+        <v>98</v>
+      </c>
+      <c r="K127" t="s">
+        <v>215</v>
+      </c>
+      <c r="L127" t="s">
+        <v>156</v>
+      </c>
+      <c r="M127">
+        <v>6</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" t="s">
+        <v>82</v>
+      </c>
+      <c r="G128" t="s">
+        <v>86</v>
+      </c>
+      <c r="H128" t="s">
+        <v>142</v>
+      </c>
+      <c r="I128" t="s">
+        <v>142</v>
+      </c>
+      <c r="J128" t="s">
+        <v>98</v>
+      </c>
+      <c r="K128" t="s">
+        <v>216</v>
+      </c>
+      <c r="L128" t="s">
+        <v>156</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" t="s">
+        <v>96</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
+      </c>
+      <c r="H129" t="s">
+        <v>147</v>
+      </c>
+      <c r="I129" t="s">
+        <v>147</v>
+      </c>
+      <c r="J129" t="s">
+        <v>77</v>
+      </c>
+      <c r="K129" t="s">
+        <v>238</v>
+      </c>
+      <c r="L129" t="s">
+        <v>156</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>2</v>
+      </c>
+      <c r="P129">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3971,6 +9576,86 @@
     <hyperlink ref="C47" r:id="rId46"/>
     <hyperlink ref="C48" r:id="rId47"/>
     <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
+    <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C67" r:id="rId66"/>
+    <hyperlink ref="C68" r:id="rId67"/>
+    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C70" r:id="rId69"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71"/>
+    <hyperlink ref="C73" r:id="rId72"/>
+    <hyperlink ref="C74" r:id="rId73"/>
+    <hyperlink ref="C75" r:id="rId74"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
+    <hyperlink ref="C81" r:id="rId80"/>
+    <hyperlink ref="C82" r:id="rId81"/>
+    <hyperlink ref="C83" r:id="rId82"/>
+    <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
+    <hyperlink ref="C86" r:id="rId85"/>
+    <hyperlink ref="C87" r:id="rId86"/>
+    <hyperlink ref="C88" r:id="rId87"/>
+    <hyperlink ref="C89" r:id="rId88"/>
+    <hyperlink ref="C90" r:id="rId89"/>
+    <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C92" r:id="rId91"/>
+    <hyperlink ref="C93" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C96" r:id="rId95"/>
+    <hyperlink ref="C97" r:id="rId96"/>
+    <hyperlink ref="C98" r:id="rId97"/>
+    <hyperlink ref="C99" r:id="rId98"/>
+    <hyperlink ref="C100" r:id="rId99"/>
+    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C103" r:id="rId102"/>
+    <hyperlink ref="C104" r:id="rId103"/>
+    <hyperlink ref="C105" r:id="rId104"/>
+    <hyperlink ref="C106" r:id="rId105"/>
+    <hyperlink ref="C107" r:id="rId106"/>
+    <hyperlink ref="C108" r:id="rId107"/>
+    <hyperlink ref="C109" r:id="rId108"/>
+    <hyperlink ref="C110" r:id="rId109"/>
+    <hyperlink ref="C111" r:id="rId110"/>
+    <hyperlink ref="C112" r:id="rId111"/>
+    <hyperlink ref="C113" r:id="rId112"/>
+    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C115" r:id="rId114"/>
+    <hyperlink ref="C116" r:id="rId115"/>
+    <hyperlink ref="C117" r:id="rId116"/>
+    <hyperlink ref="C118" r:id="rId117"/>
+    <hyperlink ref="C119" r:id="rId118"/>
+    <hyperlink ref="C120" r:id="rId119"/>
+    <hyperlink ref="C121" r:id="rId120"/>
+    <hyperlink ref="C122" r:id="rId121"/>
+    <hyperlink ref="C123" r:id="rId122"/>
+    <hyperlink ref="C124" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C126" r:id="rId125"/>
+    <hyperlink ref="C127" r:id="rId126"/>
+    <hyperlink ref="C128" r:id="rId127"/>
+    <hyperlink ref="C129" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
